--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_233.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_233.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,682 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1350574712643678</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:04.740000', '0:00:08.620000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[('0:00:36.640000', '0:00:38.520000'), ('0:00:36.340000', '0:00:37.980000'), ('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:09.640000', '0:00:22.680000'), ('0:00:50.580000', '0:00:59.480000'), ('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.06, 123.26)]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:08.180000', '0:00:21.140000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07968631419175309</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'E/2', 'E/3', 'E/4', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'D/b7', 'D/6', 'D/5', 'G']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(63.419996, 69.714376)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(35.486462, 41.361111)]</t>
+          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[('0:02:07.449092', '0:02:20.823786')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:01.922018', '0:00:28.265056')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.935986, 12.498707)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(22.6, 33.0)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[('0:00:21.080000', '0:00:24.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:10.200000', '0:00:18.840000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(70.06, 87.32)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[('0:00:28.140000', '0:00:36.100000'), ('0:01:23.100000', '0:01:30.020000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:01:37.880000', '0:01:48.980000'), ('0:00:47.580000', '0:00:50.040000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:01:42.160000', '0:01:53.900000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.9, 101.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(2.7, 109.5)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
